--- a/Back/clientes.xlsx
+++ b/Back/clientes.xlsx
@@ -14,125 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Nome do Cliente</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>N° de Celular</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Valor Empréstimo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Porcentagem Cobrada</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Pagamento</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Parcelas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Valor das Parcelas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Valor total</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Data de Cadastro</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Nome do Cliente</t>
+  </si>
+  <si>
+    <t>N° de Celular</t>
+  </si>
+  <si>
+    <t>Valor Empréstimo</t>
+  </si>
+  <si>
+    <t>Porcentagem Cobrada</t>
+  </si>
+  <si>
+    <t>Pagamento</t>
+  </si>
+  <si>
+    <t>Parcelas</t>
+  </si>
+  <si>
+    <t>Valor das Parcelas</t>
+  </si>
+  <si>
+    <t>Valor total</t>
+  </si>
+  <si>
+    <t>Data de Cadastro</t>
+  </si>
+  <si>
+    <t>Vinicius Gadioli</t>
+  </si>
+  <si>
+    <t>5511941298363</t>
+  </si>
+  <si>
+    <t>teste1</t>
+  </si>
+  <si>
+    <t>teste2</t>
+  </si>
+  <si>
+    <t>teste3</t>
+  </si>
+  <si>
+    <t>teste4</t>
+  </si>
+  <si>
+    <t>teste5</t>
+  </si>
+  <si>
+    <t>nao aparecer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -634,158 +578,170 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1106,53 +1062,276 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I8" sqref="A2:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="25.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="30.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="25.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="25.1428571428571" customWidth="1"/>
-    <col min="8" max="8" width="20.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="23.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="25.5714285714286" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.4285714285714" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1428571428571" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.8571428571429" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>260</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1300</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>414</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>500</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1300</v>
+      </c>
+      <c r="I3" s="2">
+        <v>45183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>415</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>500</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1300</v>
+      </c>
+      <c r="I4" s="2">
+        <v>45178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>416</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>500</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1300</v>
+      </c>
+      <c r="I5" s="2">
+        <v>45198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>417</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D6" s="1">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>500</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1300</v>
+      </c>
+      <c r="I6" s="2">
+        <v>45197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>418</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D7" s="1">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>500</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1300</v>
+      </c>
+      <c r="I7" s="2">
+        <v>45199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>134</v>
+      </c>
+      <c r="C8" s="1">
+        <v>34141</v>
+      </c>
+      <c r="D8" s="1">
+        <v>341</v>
+      </c>
+      <c r="E8" s="1">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>300</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3011</v>
+      </c>
+      <c r="I8" s="2">
+        <v>134111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Back/clientes.xlsx
+++ b/Back/clientes.xlsx
@@ -1075,7 +1075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="$A14:$XFD14"/>
@@ -1244,7 +1244,76 @@
         </is>
       </c>
     </row>
-    <row r="14"/>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>teste2311231</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1134134</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>131</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>148.03</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>asda</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Back/clientes.xlsx
+++ b/Back/clientes.xlsx
@@ -22,7 +22,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -36,6 +36,27 @@
       <b val="1"/>
       <color theme="1"/>
       <sz val="13"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color rgb="FF121C2D"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color rgb="FF121C2D"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -522,31 +543,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
@@ -555,140 +564,173 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1075,67 +1117,67 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="$A14:$XFD14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="25.5714285714286" customWidth="1" style="1" min="2" max="2"/>
-    <col width="27" customWidth="1" style="1" min="3" max="3"/>
-    <col width="30.4285714285714" customWidth="1" style="1" min="4" max="4"/>
-    <col width="25.4285714285714" customWidth="1" style="1" min="5" max="5"/>
-    <col width="17" customWidth="1" style="1" min="6" max="6"/>
-    <col width="25.1428571428571" customWidth="1" style="1" min="7" max="7"/>
-    <col width="20.7142857142857" customWidth="1" style="1" min="8" max="8"/>
-    <col width="23.8571428571429" customWidth="1" style="6" min="9" max="9"/>
+    <col width="21.8571428571429" customWidth="1" min="1" max="1"/>
+    <col width="25.5714285714286" customWidth="1" style="2" min="2" max="2"/>
+    <col width="27" customWidth="1" style="2" min="3" max="3"/>
+    <col width="30.4285714285714" customWidth="1" style="2" min="4" max="4"/>
+    <col width="25.4285714285714" customWidth="1" style="2" min="5" max="5"/>
+    <col width="17" customWidth="1" style="2" min="6" max="6"/>
+    <col width="25.1428571428571" customWidth="1" style="2" min="7" max="7"/>
+    <col width="20.7142857142857" customWidth="1" style="2" min="8" max="8"/>
+    <col width="23.8571428571429" customWidth="1" style="12" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Nome do Cliente</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>N° de Celular</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Valor Empréstimo</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Porcentagem Cobrada</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
-          <t>Pagamento</t>
+          <t>Pagamento em dias</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Parcelas</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Valor das Parcelas</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>Valor total</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="13" t="inlineStr">
         <is>
           <t>Data de Cadastro</t>
         </is>
@@ -1147,172 +1189,91 @@
           <t>Vinicius Gadioli</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>5511941298363</t>
         </is>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>260</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="2" t="n">
         <v>1300</v>
       </c>
-      <c r="I2" s="6" t="n">
-        <v>45171</v>
+      <c r="I2" s="12" t="n">
+        <v>45173</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>teste323</t>
+          <t>asdasd</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>134134</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>134</v>
-      </c>
-      <c r="D3" t="n">
-        <v>134</v>
-      </c>
-      <c r="E3" t="n">
-        <v>134</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>224.23</v>
-      </c>
-      <c r="H3" t="n">
-        <v>313.56</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>02/10/2023</t>
-        </is>
+      <c r="C3" s="2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>3900</v>
+      </c>
+      <c r="I3" s="14" t="n">
+        <v>45203</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>teste11111</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>343</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>34</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34</v>
-      </c>
-      <c r="E4" t="n">
-        <v>34</v>
-      </c>
-      <c r="F4" t="n">
-        <v>34</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="H4" t="n">
-        <v>45.56</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>02/10/2023</t>
-        </is>
-      </c>
+      <c r="B4" s="8" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="14" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>teste2311231</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1134134</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>131</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13</v>
-      </c>
-      <c r="E5" t="n">
-        <v>13</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" t="n">
-        <v>60.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>148.03</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>03/10/2023</t>
-        </is>
-      </c>
+      <c r="B5" s="8" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="14" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>asda</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>03/10/2023</t>
-        </is>
-      </c>
+      <c r="I6" s="14" t="n"/>
+    </row>
+    <row r="7">
+      <c r="I7" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Back/clientes.xlsx
+++ b/Back/clientes.xlsx
@@ -1250,14 +1250,37 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="8" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="14" t="n"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>2121</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>5224.73</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>6638.73</v>
+      </c>
+      <c r="I4" s="14" t="n">
+        <v>45220</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="8" t="n"/>

--- a/Back/clientes.xlsx
+++ b/Back/clientes.xlsx
@@ -1,218 +1,272 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27945" windowHeight="12330" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="27945" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Nome do Cliente</t>
+  </si>
+  <si>
+    <t>N° de Celular</t>
+  </si>
+  <si>
+    <t>Valor Empréstimo</t>
+  </si>
+  <si>
+    <t>Porcentagem Cobrada</t>
+  </si>
+  <si>
+    <t>Pagamento em dias</t>
+  </si>
+  <si>
+    <t>Parcelas</t>
+  </si>
+  <si>
+    <t>Valor das Parcelas</t>
+  </si>
+  <si>
+    <t>Valor total</t>
+  </si>
+  <si>
+    <t>Data de Cadastro</t>
+  </si>
+  <si>
+    <t>Vinicius Gadioli</t>
+  </si>
+  <si>
+    <t>5511941298363</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>134134</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>123123</t>
+  </si>
+  <si>
+    <t>ASDASD</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="25">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="Arial"/>
       <charset val="134"/>
-      <b val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF121C2D"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF121C2D"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
-    </font>
-    <font>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <b val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <color rgb="FF121C2D"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <color rgb="FF121C2D"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="10"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -543,195 +597,179 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,74 +823,11 @@
     <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1112,193 +1087,230 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col width="21.8571428571429" customWidth="1" min="1" max="1"/>
-    <col width="25.5714285714286" customWidth="1" style="2" min="2" max="2"/>
-    <col width="27" customWidth="1" style="2" min="3" max="3"/>
-    <col width="30.4285714285714" customWidth="1" style="2" min="4" max="4"/>
-    <col width="25.4285714285714" customWidth="1" style="2" min="5" max="5"/>
-    <col width="17" customWidth="1" style="2" min="6" max="6"/>
-    <col width="25.1428571428571" customWidth="1" style="2" min="7" max="7"/>
-    <col width="20.7142857142857" customWidth="1" style="2" min="8" max="8"/>
-    <col width="23.8571428571429" customWidth="1" style="12" min="9" max="9"/>
+    <col min="1" max="1" width="21.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="25.5714285714286" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.4285714285714" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1428571428571" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.8571428571429" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>Nome do Cliente</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>N° de Celular</t>
-        </is>
-      </c>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t>Valor Empréstimo</t>
-        </is>
-      </c>
-      <c r="D1" s="6" t="inlineStr">
-        <is>
-          <t>Porcentagem Cobrada</t>
-        </is>
-      </c>
-      <c r="E1" s="6" t="inlineStr">
-        <is>
-          <t>Pagamento em dias</t>
-        </is>
-      </c>
-      <c r="F1" s="6" t="inlineStr">
-        <is>
-          <t>Parcelas</t>
-        </is>
-      </c>
-      <c r="G1" s="6" t="inlineStr">
-        <is>
-          <t>Valor das Parcelas</t>
-        </is>
-      </c>
-      <c r="H1" s="6" t="inlineStr">
-        <is>
-          <t>Valor total</t>
-        </is>
-      </c>
-      <c r="I1" s="13" t="inlineStr">
-        <is>
-          <t>Data de Cadastro</t>
-        </is>
+    <row r="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Vinicius Gadioli</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>5511941298363</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
+    <row r="2" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
         <v>1000</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="1">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="1">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="1">
         <v>260</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="1">
         <v>1300</v>
       </c>
-      <c r="I2" s="12" t="n">
+      <c r="I2" s="2">
         <v>45173</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>134134</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
         <v>3000</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="1">
         <v>30</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="1">
         <v>30</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="1">
         <v>1500</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="1">
         <v>3900</v>
       </c>
-      <c r="I3" s="14" t="n">
+      <c r="I3" s="2">
         <v>45203</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>asdas</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>123123</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
         <v>2121</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="1">
         <v>213</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="1">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="1">
         <v>5224.73</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="1">
         <v>6638.73</v>
       </c>
-      <c r="I4" s="14" t="n">
+      <c r="I4" s="2">
         <v>45220</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="8" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="14" t="n"/>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>4.27</v>
+      </c>
+      <c r="H5">
+        <v>23.52</v>
+      </c>
+      <c r="I5" s="2">
+        <v>45222</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="I6" s="14" t="n"/>
+    <row r="6" spans="2:8">
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
     </row>
-    <row r="7">
-      <c r="I7" s="11" t="n"/>
+    <row r="7" spans="2:8">
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>